--- a/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D89C9-D859-4043-93DD-6BD6F373D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Overtime and Night Shift Allowance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廠別</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -169,10 +177,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Wage Standard</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>A01-Overtime Hour(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +209,6 @@
   </si>
   <si>
     <t>Department Name</t>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -245,76 +245,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NHNO_AMT + HO_AMT + INS_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRMS_Att_Resign_Monthly_Detail.Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRMS_Sal_Resign_Monthly_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序依照5.1.9的序號 小到大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Seq = 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST ROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核決:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審核:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製表:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved by:</t>
+  </si>
+  <si>
+    <t>Checked by:</t>
+  </si>
+  <si>
+    <t>Applicant:</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Wage Standard</t>
+  </si>
+  <si>
     <t>A06_AMT</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Overtime50_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NHNO_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HO_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INS_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHNO_AMT + HO_AMT + INS_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRMS_Att_Resign_Monthly_Detail.Days</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRMS_Sal_Resign_Monthly_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序依照5.1.9的序號 小到大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Seq = 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST ROW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核決:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審核:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製表:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approved by:</t>
-  </si>
-  <si>
-    <t>Checked by:</t>
-  </si>
-  <si>
-    <t>Applicant:</t>
+  </si>
+  <si>
+    <t>Overtime and Night Shift Allowance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +389,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -437,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -449,44 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -497,12 +478,54 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,181 +897,181 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="30">
+      <c r="A5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="M5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="20" customFormat="1" ht="45">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="45">
-      <c r="A6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="J6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="K6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="M6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="17" t="s">
+      <c r="N6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="O6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="P6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="Q6" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="45.75">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75">
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="20" t="s">
-        <v>60</v>
+      <c r="J9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="21" t="s">
-        <v>61</v>
+      <c r="A17" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1060,37 +1083,38 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D89C9-D859-4043-93DD-6BD6F373D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -257,67 +256,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type_Seq = 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST ROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核決:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審核:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製表:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved by:</t>
+  </si>
+  <si>
+    <t>Checked by:</t>
+  </si>
+  <si>
+    <t>Applicant:</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Wage Standard</t>
+  </si>
+  <si>
+    <t>A06_AMT</t>
+  </si>
+  <si>
+    <t>Overtime50_AMT</t>
+  </si>
+  <si>
+    <t>NHNO_AMT</t>
+  </si>
+  <si>
+    <t>HO_AMT</t>
+  </si>
+  <si>
+    <t>INS_AMT</t>
+  </si>
+  <si>
+    <t>Overtime and Night Shift Allowance</t>
+  </si>
+  <si>
     <t>排序依照5.1.9的序號 小到大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Seq = 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST ROW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核決:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審核:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製表:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approved by:</t>
-  </si>
-  <si>
-    <t>Checked by:</t>
-  </si>
-  <si>
-    <t>Applicant:</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Wage Standard</t>
-  </si>
-  <si>
-    <t>A06_AMT</t>
-  </si>
-  <si>
-    <t>Overtime50_AMT</t>
-  </si>
-  <si>
-    <t>NHNO_AMT</t>
-  </si>
-  <si>
-    <t>HO_AMT</t>
-  </si>
-  <si>
-    <t>INS_AMT</t>
-  </si>
-  <si>
-    <t>Overtime and Night Shift Allowance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -455,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -521,11 +519,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,13 +898,13 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" ht="30">
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="16.5">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -976,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>36</v>
@@ -1017,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>45</v>
@@ -1029,19 +1030,19 @@
         <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>48</v>
@@ -1059,19 +1060,19 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75">
-      <c r="H9" s="3" t="s">
-        <v>51</v>
+      <c r="H9" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1083,34 +1084,34 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
